--- a/Documents/Obj.xlsx
+++ b/Documents/Obj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/기획/졸업작품/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712B985F-0A60-491E-A197-DD9466A3E811}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="3780" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,28 @@
 버튼이 있으며, 천장에는
 침대를 비추는, 사각형의
 큰 조명이 있으면 좋겠어요. 그리고, 추가로 여러 모니터 같은 게 붙어 있으면 더 좋을 거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색 점토로 만들어진 듯 한 벽에
+금이 있어, 일정 이상의 힘을 가하면
+부서질 것만 같은 벽이 필요합니다.
+또한 일정 이상의 힘이 가해진다면
+벽이 여러 조각으로 분해되어
+바닥을 나뒹굴어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">양쪽으로 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이는 발판이 존재하며, 버튼과 연계된 발판의 경우 
+버튼 활성화 시 3초에 걸쳐 목적 위치까지 도달함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1m x </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,6 +625,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,15 +783,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>33616</xdr:colOff>
+      <xdr:colOff>302558</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>246529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2113427</xdr:colOff>
+      <xdr:colOff>2382369</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2256658</xdr:rowOff>
+      <xdr:rowOff>2323893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -793,7 +821,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9491381" y="9502588"/>
+          <a:off x="15273617" y="952500"/>
           <a:ext cx="2079811" cy="2077364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -816,13 +844,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2324101</xdr:colOff>
+      <xdr:colOff>2559424</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>168091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4869515</xdr:colOff>
+      <xdr:colOff>5104838</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2244845</xdr:rowOff>
     </xdr:to>
@@ -854,7 +882,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11781866" y="9491385"/>
+          <a:off x="17530483" y="874062"/>
           <a:ext cx="2545414" cy="2076754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1415,6 +1443,555 @@
         <a:xfrm>
           <a:off x="19920857" y="15441530"/>
           <a:ext cx="4313464" cy="2434519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5042807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16" descr="우주 정거장 내부 화장실 방입니다 우주선에 변기와 빈 화장실 우주 비행사에 대 한 공간 화장실입니다 Mir Space Station에  대한 스톡 사진 및 기타 이미지 - iStock">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15090321" y="12164786"/>
+          <a:ext cx="3228975" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3633108</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>340177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9189348</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4905373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17" descr="우주에서의 배설물은 어떻게 처리할까? : 네이버 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18628179" y="12300856"/>
+          <a:ext cx="5556240" cy="4565196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1292806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4708071</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4342463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19" descr="배경으로 오래된 흙 벽 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 22856987.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15158357" y="26411592"/>
+          <a:ext cx="4544785" cy="3049657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4857749</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8844643</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2402839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20" descr="흙벽예찬 흙집 황토흙 황토벽 만들기 : 네이버 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19852820" y="25214036"/>
+          <a:ext cx="3986894" cy="2307589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5034644</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2585354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8668208</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5143499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21" descr="한 무더기의 부서진 돌 | 돌, 질감, 부서진">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20029715" y="27704140"/>
+          <a:ext cx="3633564" cy="2558145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>432956</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4087091</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5066645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22" descr="열린목공방 - 철제느낌 원목 캐비넷-(열린목공방,강서구목공방,가구공방,diy가구교실,가구만들기)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15430501" y="10338954"/>
+          <a:ext cx="3654135" cy="4893464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301831</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>253587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6982938</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5056909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23" descr="에뛰드 하우스 :: 민트 캐비닛">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15299376" y="8566314"/>
+          <a:ext cx="6681107" cy="4803322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>557894</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>368558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3728358</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3562349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25" descr="무빙 워크 및 에스컬레이터 컬렉션 3D 모델 $49 - .max .obj .fbx .3ds - Free3D">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8878A084-ABD0-4CA7-9562-B6724F38AD4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15552965" y="29855237"/>
+          <a:ext cx="3170464" cy="3193791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4558394</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>517071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8811987</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3374571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26" descr="무빙워크 사진, 이미지, 일러스트, 캘리그라피 - 크라우드픽">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7FDFD3-4B04-4094-9D31-A021B6898347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19553465" y="30003750"/>
+          <a:ext cx="4253593" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,7 +2408,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -1890,7 +2467,9 @@
       <c r="F2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1915,7 +2494,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="145.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1927,11 +2506,12 @@
         <v>15</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1947,7 +2527,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1993,8 +2573,9 @@
       <c r="E8" s="4"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
+      <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2090,7 +2671,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2103,6 +2684,9 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="9"/>
+      <c r="G15" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
@@ -2162,8 +2746,8 @@
       <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>19</v>
+      <c r="E18" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>43</v>

--- a/Documents/Obj.xlsx
+++ b/Documents/Obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712B985F-0A60-491E-A197-DD9466A3E811}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48828065-AF8B-47F9-9903-C087DE43BDC8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23355" yWindow="3270" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1m x 0.2m x 2.5m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.1m x 0.1m x 0.04m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +256,6 @@
   </si>
   <si>
     <t>start0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2m x 1.5m x 2.1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,6 +292,14 @@
   </si>
   <si>
     <t xml:space="preserve">1m x </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m x 2.5m x 0.2m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5m x 2m x 1.8m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,6 +617,12 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -625,12 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2006,6 +2006,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1071564</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>432954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3169228</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4732122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A40A416-6B54-4B0A-A9DF-8A0C4ED982EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7098291" y="3550227"/>
+          <a:ext cx="2097664" cy="4299168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2322,19 +2366,19 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2364,11 +2408,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2406,9 +2450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -2442,7 +2486,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>9</v>
@@ -2456,7 +2500,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -2465,10 +2509,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -2480,17 +2524,17 @@
         <v>27</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -2507,7 +2551,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -2684,8 +2728,8 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="26" t="s">
-        <v>49</v>
+      <c r="G15" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -2706,7 +2750,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
@@ -2728,7 +2772,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="4"/>
@@ -2746,11 +2790,11 @@
       <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>51</v>
+      <c r="E18" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="4"/>
@@ -2772,7 +2816,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="4" t="s">

--- a/Documents/Obj.xlsx
+++ b/Documents/Obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48828065-AF8B-47F9-9903-C087DE43BDC8}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BCAB2AF-9A55-40FC-B8EA-A2D8C598CC34}"/>
   <bookViews>
-    <workbookView xWindow="23355" yWindow="3270" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,10 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">양쪽으로 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>움직이는 발판이 존재하며, 버튼과 연계된 발판의 경우 
 버튼 활성화 시 3초에 걸쳐 목적 위치까지 도달함</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +296,20 @@
   </si>
   <si>
     <t>1.5m x 2m x 1.8m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3면에서 닫힙니다.
+상, 좌, 우측에서 문의 3분의 1씩 나와 문을 구성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번과는 다르게 좌, 우
+양쪽에서 열리고 닫힙니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,6 +642,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2050,6 +2063,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5905501</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3333749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27" descr="SCI FI 게이트 문 3D 모델 - TurboSquid 900190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15118773" y="34266022"/>
+          <a:ext cx="5784273" cy="3219182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2451,8 +2525,8 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -2509,10 +2583,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -2531,7 +2605,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>46</v>
@@ -2551,7 +2625,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -2649,7 +2723,9 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -2665,9 +2741,11 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2680,7 +2758,9 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2697,7 +2777,9 @@
       <c r="E13" s="4"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -2713,7 +2795,9 @@
       <c r="E14" s="4"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -2791,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>42</v>

--- a/Documents/Obj.xlsx
+++ b/Documents/Obj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BCAB2AF-9A55-40FC-B8EA-A2D8C598CC34}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52732283-7BAA-42CE-90A6-FD17F2DF6D89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -551,13 +551,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,6 +661,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -642,8 +673,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2440,19 +2489,19 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2482,11 +2531,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2524,9 +2573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -2585,7 +2634,7 @@
       <c r="F2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="4"/>
@@ -2646,20 +2695,20 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="4"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -2758,7 +2807,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="25" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="4"/>

--- a/Documents/Obj.xlsx
+++ b/Documents/Obj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52732283-7BAA-42CE-90A6-FD17F2DF6D89}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6787048-1E3B-4E97-98FF-DAE843174841}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,12 +312,50 @@
 양쪽에서 열리고 닫힙니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>본 오브젝트가 문서에 포함되어 있다면, 무빙워크의 방향이 있을겁니다.
+그 방향대로 0.5m/s의 속력으로 움직이게 해주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지는 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미관용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리 너머의 상태를 확인할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 붙어있는 버튼으로 물리적 충격을
+받으면 버튼이 눌리며, 버튼과 연결된
+오브젝트가 작동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결되어 있는 레버, 버튼등이 작동하면
+문이 작동(open or close)합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A타입이며 중력을 받는 구체입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 이상의 충격을 받으면 부서지는
+기능을 가진 벽입니다.
+Ex 충격(1번 무기의 관성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,14 +417,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -418,6 +448,24 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -585,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,95 +652,101 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2119,15 +2173,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>121228</xdr:colOff>
+      <xdr:colOff>1333501</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114567</xdr:rowOff>
+      <xdr:rowOff>495567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5905501</xdr:colOff>
+      <xdr:colOff>7117774</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3333749</xdr:rowOff>
+      <xdr:rowOff>3714749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2157,7 +2211,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15118773" y="34266022"/>
+          <a:off x="17352819" y="38006749"/>
           <a:ext cx="5784273" cy="3219182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2489,19 +2543,19 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2531,11 +2585,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2573,385 +2627,404 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24" style="13" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="61.25" customWidth="1"/>
-    <col min="6" max="7" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="61.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" style="31" customWidth="1"/>
     <col min="8" max="8" width="128.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="30" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="36" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="25" t="s">
+      <c r="E12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="30" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:8" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+    <row r="14" spans="1:8" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="23" t="s">
+      <c r="E15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="37" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="4" t="s">
         <v>25</v>
       </c>

--- a/Documents/Obj.xlsx
+++ b/Documents/Obj.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\project\GangsterHamster\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{5BE73DCE-E47C-462A-A3DA-25112E068CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6787048-1E3B-4E97-98FF-DAE843174841}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D7E59-6464-4994-8A8A-7B92FD148E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,14 @@
     <t>일정 이상의 충격을 받으면 부서지는
 기능을 가진 벽입니다.
 Ex 충격(1번 무기의 관성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">천장과 붙어 있으며
+바닥과의 거리(높이)는 1.1m이다.
+가로 세로 너비 또한 
+때때로 달라진다.
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +717,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,34 +756,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2543,19 +2554,19 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2585,11 +2596,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2628,8 +2639,8 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.3"/>
@@ -2640,7 +2651,7 @@
     <col min="4" max="4" width="18.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="61.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" style="31" customWidth="1"/>
+    <col min="7" max="7" width="41.5" style="28" customWidth="1"/>
     <col min="8" max="8" width="128.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2657,13 +2668,13 @@
       <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -2689,7 +2700,7 @@
       <c r="F2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="27" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="4"/>
@@ -2711,7 +2722,7 @@
       <c r="F3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="4"/>
@@ -2733,7 +2744,7 @@
       <c r="F4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
@@ -2750,7 +2761,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2766,7 +2777,7 @@
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2780,11 +2791,11 @@
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2802,7 +2813,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2816,11 +2827,11 @@
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="30" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
@@ -2835,8 +2846,10 @@
         <v>15</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="25"/>
       <c r="H10" s="4" t="s">
         <v>52</v>
       </c>
@@ -2854,7 +2867,7 @@
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="4" t="s">
         <v>52</v>
       </c>
@@ -2870,11 +2883,11 @@
       <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="30" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="27" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="4"/>
@@ -2890,11 +2903,11 @@
       <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="30" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="4" t="s">
         <v>52</v>
       </c>
@@ -2914,7 +2927,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="4" t="s">
         <v>52</v>
       </c>
@@ -2930,11 +2943,11 @@
       <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="30" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="4"/>
@@ -2952,13 +2965,13 @@
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.3">
@@ -2980,7 +2993,7 @@
       <c r="F17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2996,13 +3009,13 @@
       <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="30" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3024,7 +3037,7 @@
       <c r="F19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="4" t="s">
         <v>25</v>
       </c>
